--- a/Excel_profile_templates/Profile Template - CC Encounter Attendance details.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Encounter Attendance details.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="223">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
   </si>
   <si>
     <t>Not Used</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Card.</t>
@@ -411,29 +411,30 @@
   </si>
   <si>
     <t>List of participants involved in the encounter
-&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Care professionals present' and 'Person accompanying patient'&lt;/b&gt;&lt;/font&gt;</t>
+&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Care professionals present' , 'Person accompanying patient' and 'Professional performing the contact'&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>Role of participant in encounter
 Binding (extensible): Role of participant in encounter [ParticipantType](http://hl7.org/fhir/stu3/valueset-encounter-participant-type.html)
-&lt;font color='red'&gt;There will be serveral instances of this element. The first use case is for Care professionals present and this will use a reference to  the Practitioner resource and the second use case is for Person accompanying patient and this will use a reference to  the relatedPerson resource&lt;/font&gt;
-&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item ='Care professionals present type' and 'Relationship of Person accompanying patient'&lt;/b&gt;&lt;/font&gt;</t>
+&lt;font color='red'&gt;There will be serveral instances of this element. The first use case is for Care professionals present and performing professional which will use a reference to  the Practitioner resource and the second use case is for Person accompanying patient and this will use a reference to  the relatedPerson resource&lt;/font&gt;
+&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item ='Care professionals present type' , 'Professional performing the contact' and 'Relationship of Person accompanying patient'&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>Code defined by a terminology system
 &lt;font color='red'&gt;There will be one instance of the coding for each instance of type&lt;/font&gt;</t>
   </si>
   <si>
-    <t>Identity of the terminology system
-&lt;font color='red'&gt;This MUST contain the value 'http://hl7.org/fhir/ValueSet/encounter-participant-type'&lt;/font&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Symbol in syntax defined by the system
-&lt;font color='red'&gt;The Care professionals present will use the most appropriate code.&lt;/font&gt;
+&lt;font color='red'&gt;The Care professionals present will use the most appropriate code the performing professional will use a code of 'PRF'.&lt;/font&gt;
 &lt;font color='red'&gt;The Person accompanying patient will use a code of 'ESC'&lt;/font&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;font color='red'&gt;The Care professional will use the display associated with the code&lt;/font&gt;
+    <t xml:space="preserve">&lt;font color='red'&gt;The Care professionals present will use the most appropriate code the performing professional will use a code of 'PRF'.&lt;/font&gt;
+&lt;font color='red'&gt;The Person accompanying patient will use a code of 'ESC'&lt;/font&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code defined by a terminology system
+&lt;font color='red'&gt;The Care professional will use the display associated with the code&lt;/font&gt;
 &lt;font color='red'&gt;The Person accompanying patient will use a display of 'escort'&lt;/font&gt; </t>
   </si>
   <si>
@@ -860,8 +861,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <color rgb="FF474747"/>
-      <name val="Helvetica Neue"/>
+      <sz val="8.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -922,28 +922,19 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -992,7 +983,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1028,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#id","Id")</f>
@@ -1046,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
@@ -1064,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1082,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1100,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/narrative.html#Narrative","Narrative")</f>
@@ -1118,7 +1109,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html","Resource")</f>
@@ -1136,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EncounterTransport-1","Extension-CareConnect-EncounterTransport-1")</f>
@@ -1147,20 +1138,20 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>2</v>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-OutcomeOfAttendance-1","Extension-CareConnect-OutcomeOfAttendance-1")</f>
         <v>Extension-CareConnect-OutcomeOfAttendance-1</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1172,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EmergencyCareDischargeStatus-1","Extension-CareConnect-EmergencyCareDischargeStatus-1")</f>
@@ -1190,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -1208,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1226,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1244,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1262,7 +1253,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1280,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1298,7 +1289,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1316,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1334,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1352,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1370,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1388,7 +1379,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1406,13 +1397,13 @@
         <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1424,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1442,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" ref="D26:D27" si="1">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1460,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1478,9 +1469,9 @@
         <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1492,7 +1483,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
@@ -1508,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1526,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1543,8 +1534,8 @@
       <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>2</v>
+      <c r="C32" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D32" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1562,7 +1553,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1580,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -1598,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -1616,7 +1607,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1634,7 +1625,7 @@
         <v>56</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1652,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" ref="D38:D39" si="2">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1670,7 +1661,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1687,8 +1678,8 @@
       <c r="B40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>2</v>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D40" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1705,8 +1696,8 @@
       <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>2</v>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D41" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1724,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1741,8 +1732,8 @@
       <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>2</v>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D43" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1759,8 +1750,8 @@
       <c r="B44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>2</v>
+      <c r="C44" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D44" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1778,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1796,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -1814,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -1832,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1850,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1868,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1886,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1904,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1922,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1936,11 +1927,11 @@
       <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1958,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" ref="D55:D56" si="3">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1976,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1990,11 +1981,11 @@
       <c r="A57" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>2</v>
+      <c r="B57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D57" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2011,14 +2002,14 @@
       <c r="B58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>2</v>
+      <c r="C58" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" ref="D58:D59" si="4">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
         <v>Coding</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2030,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2048,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -2065,8 +2056,8 @@
       <c r="B61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>1</v>
+      <c r="C61" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="D61" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2083,8 +2074,8 @@
       <c r="B62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>4</v>
+      <c r="C62" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D62" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2101,8 +2092,8 @@
       <c r="B63" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>2</v>
+      <c r="C63" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D63" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2119,8 +2110,8 @@
       <c r="B64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>2</v>
+      <c r="C64" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D64" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2138,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2156,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2174,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2192,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2210,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2228,7 +2219,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2246,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2264,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2282,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2300,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2318,13 +2309,13 @@
         <v>14</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D75" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2332,7 +2323,7 @@
       <c r="A76" s="7"/>
       <c r="B76" s="5"/>
       <c r="C76" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/STU3/group.html","Group")</f>
@@ -2344,7 +2335,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -2360,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2378,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2396,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2414,9 +2405,9 @@
         <v>25</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D81" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2428,7 +2419,7 @@
       <c r="A82" s="7"/>
       <c r="B82" s="5"/>
       <c r="C82" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
@@ -2444,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2462,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2480,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2498,9 +2489,9 @@
         <v>25</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D86" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2512,7 +2503,7 @@
       <c r="A87" s="7"/>
       <c r="B87" s="5"/>
       <c r="C87" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ReferralRequest","ReferralRequest")</f>
@@ -2528,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2546,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2564,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2582,13 +2573,13 @@
         <v>25</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2600,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2614,21 +2605,21 @@
       <c r="A93" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" ht="23.25" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2627,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2654,13 +2645,13 @@
         <v>56</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="14" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2672,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2686,11 +2677,11 @@
       <c r="A97" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2700,21 +2691,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" ht="36.75" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2726,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2744,7 +2735,7 @@
         <v>14</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2762,7 +2753,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2780,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" s="9" t="str">
         <f t="shared" ref="D102:D103" si="5">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2798,7 +2789,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2812,13 +2803,13 @@
       <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D104" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2830,13 +2821,13 @@
       <c r="A105" s="7"/>
       <c r="B105" s="5"/>
       <c r="C105" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2844,13 +2835,13 @@
       <c r="A106" s="7"/>
       <c r="B106" s="5"/>
       <c r="C106" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2862,13 +2853,13 @@
         <v>56</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2880,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2898,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2916,9 +2907,9 @@
         <v>14</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D110" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2930,7 +2921,7 @@
       <c r="A111" s="7"/>
       <c r="B111" s="5"/>
       <c r="C111" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Appointment","Appointment")</f>
@@ -2946,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2964,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2982,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D114" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2999,8 +2990,8 @@
       <c r="B115" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>4</v>
+      <c r="C115" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D115" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -3017,14 +3008,14 @@
       <c r="B116" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>4</v>
+      <c r="C116" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D116" s="9" t="str">
         <f t="shared" ref="D116:D117" si="6">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3036,7 +3027,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117" s="9" t="str">
         <f t="shared" si="6"/>
@@ -3054,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D118" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#duration","Duration")</f>
@@ -3072,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#decimal","Decimal")</f>
@@ -3090,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D120" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3108,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3126,7 +3117,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D122" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -3144,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3161,14 +3152,14 @@
       <c r="B124" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>4</v>
+      <c r="C124" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3180,7 +3171,7 @@
         <v>25</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D125" s="9" t="str">
         <f t="shared" ref="D125:D126" si="7">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -3197,14 +3188,14 @@
       <c r="B126" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>4</v>
+      <c r="C126" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D126" s="9" t="str">
         <f t="shared" si="7"/>
         <v>Coding</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3216,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -3233,8 +3224,8 @@
       <c r="B128" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>4</v>
+      <c r="C128" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D128" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -3252,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D129" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3269,8 +3260,8 @@
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>4</v>
+      <c r="C130" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D130" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3287,8 +3278,8 @@
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>4</v>
+      <c r="C131" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D131" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3306,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -3323,8 +3314,8 @@
       <c r="B133" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>4</v>
+      <c r="C133" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D133" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3342,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -3360,7 +3351,7 @@
         <v>25</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -3378,9 +3369,9 @@
         <v>56</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D136" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -3392,7 +3383,7 @@
       <c r="A137" s="7"/>
       <c r="B137" s="5"/>
       <c r="C137" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1","CareConnect-Procedure-1")</f>
@@ -3404,7 +3395,7 @@
       <c r="A138" s="7"/>
       <c r="B138" s="5"/>
       <c r="C138" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1","CareConnect-Condition-1")</f>
@@ -3420,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3438,7 +3429,7 @@
         <v>14</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -3456,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3474,13 +3465,13 @@
         <v>14</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3492,7 +3483,7 @@
         <v>25</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -3510,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -3528,7 +3519,7 @@
         <v>14</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3546,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3564,7 +3555,7 @@
         <v>14</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3582,7 +3573,7 @@
         <v>14</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -3600,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3618,7 +3609,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#positiveint","positiveInt")</f>
@@ -3636,9 +3627,9 @@
         <v>25</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D151" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -3650,7 +3641,7 @@
       <c r="A152" s="7"/>
       <c r="B152" s="5"/>
       <c r="C152" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Account","Account")</f>
@@ -3666,7 +3657,7 @@
         <v>14</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3684,7 +3675,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -3702,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D155" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3719,32 +3710,32 @@
       <c r="B156" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="14" t="s">
-        <v>4</v>
+      <c r="C156" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D156" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="157" ht="15.75" hidden="1" customHeight="1">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C157" s="14" t="s">
-        <v>4</v>
+      <c r="C157" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D157" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AdmissionMethod-1","Extension-CareConnect-AdmissionMethod-1")</f>
         <v>Extension-CareConnect-AdmissionMethod-1</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3756,7 +3747,7 @@
         <v>14</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DischargeMethod-1","Extension-CareConnect-DischargeMethod-1")</f>
@@ -3774,7 +3765,7 @@
         <v>25</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D159" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -3785,20 +3776,20 @@
       </c>
     </row>
     <row r="160" ht="15.75" hidden="1" customHeight="1">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D160" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3810,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D161" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3828,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D162" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -3846,7 +3837,7 @@
         <v>25</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D163" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -3864,7 +3855,7 @@
         <v>14</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D164" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -3882,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D165" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3900,7 +3891,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -3918,7 +3909,7 @@
         <v>14</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D167" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3936,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -3954,7 +3945,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D169" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3972,7 +3963,7 @@
         <v>56</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D170" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -3990,7 +3981,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D171" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4008,7 +3999,7 @@
         <v>14</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D172" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -4026,7 +4017,7 @@
         <v>14</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" s="9" t="str">
         <f t="shared" ref="D173:D174" si="8">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -4044,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174" s="9" t="str">
         <f t="shared" si="8"/>
@@ -4062,9 +4053,9 @@
         <v>14</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D175" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -4076,7 +4067,7 @@
       <c r="A176" s="7"/>
       <c r="B176" s="5"/>
       <c r="C176" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
@@ -4092,7 +4083,7 @@
         <v>14</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4110,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -4128,7 +4119,7 @@
         <v>14</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4146,13 +4137,13 @@
         <v>14</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D180" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4160,7 +4151,7 @@
       <c r="A181" s="7"/>
       <c r="B181" s="5"/>
       <c r="C181" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
@@ -4176,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D182" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4194,7 +4185,7 @@
         <v>14</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D183" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -4212,7 +4203,7 @@
         <v>14</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D184" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4229,14 +4220,14 @@
       <c r="B185" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="14" t="s">
-        <v>4</v>
+      <c r="C185" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D185" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4247,8 +4238,8 @@
       <c r="B186" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C186" s="14" t="s">
-        <v>4</v>
+      <c r="C186" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D186" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -4265,8 +4256,8 @@
       <c r="B187" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C187" s="14" t="s">
-        <v>4</v>
+      <c r="C187" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D187" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -4284,7 +4275,7 @@
         <v>14</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D188" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4301,14 +4292,14 @@
       <c r="B189" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="14" t="s">
-        <v>4</v>
+      <c r="C189" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D189" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4319,8 +4310,8 @@
       <c r="B190" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C190" s="14" t="s">
-        <v>4</v>
+      <c r="C190" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D190" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4338,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D191" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -4356,7 +4347,7 @@
         <v>14</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D192" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4367,20 +4358,20 @@
       </c>
     </row>
     <row r="193" ht="15.75" hidden="1" customHeight="1">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D193" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4392,7 +4383,7 @@
         <v>25</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D194" s="9" t="str">
         <f t="shared" ref="D194:D195" si="9">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -4410,7 +4401,7 @@
         <v>14</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D195" s="9" t="str">
         <f t="shared" si="9"/>
@@ -4428,7 +4419,7 @@
         <v>14</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D196" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -4446,7 +4437,7 @@
         <v>56</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D197" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -4464,7 +4455,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D198" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4482,7 +4473,7 @@
         <v>56</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D199" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -4500,7 +4491,7 @@
         <v>56</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D200" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4518,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D201" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -4536,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D202" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4554,7 +4545,7 @@
         <v>25</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D203" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -4572,7 +4563,7 @@
         <v>25</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -4590,7 +4581,7 @@
         <v>14</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D205" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -4608,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D206" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4626,7 +4617,7 @@
         <v>14</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D207" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -4644,7 +4635,7 @@
         <v>14</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D208" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4662,7 +4653,7 @@
         <v>14</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D209" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -4680,7 +4671,7 @@
         <v>14</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D210" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4698,7 +4689,7 @@
         <v>25</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D211" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -4716,7 +4707,7 @@
         <v>25</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D212" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -4734,7 +4725,7 @@
         <v>14</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D213" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -4752,7 +4743,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4770,7 +4761,7 @@
         <v>14</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D215" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -4788,7 +4779,7 @@
         <v>14</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D216" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4806,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D217" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -4824,7 +4815,7 @@
         <v>14</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D218" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4842,7 +4833,7 @@
         <v>25</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D219" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -4860,7 +4851,7 @@
         <v>25</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D220" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -4878,7 +4869,7 @@
         <v>14</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D221" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -4896,7 +4887,7 @@
         <v>14</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D222" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4914,7 +4905,7 @@
         <v>14</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D223" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -4932,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D224" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4950,7 +4941,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D225" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -4968,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D226" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -4986,9 +4977,9 @@
         <v>14</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D227" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -5000,7 +4991,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="5"/>
       <c r="C228" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D228" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
@@ -5016,7 +5007,7 @@
         <v>14</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D229" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5034,7 +5025,7 @@
         <v>14</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D230" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -5052,7 +5043,7 @@
         <v>14</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D231" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5070,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D232" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -5088,7 +5079,7 @@
         <v>25</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D233" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -5106,7 +5097,7 @@
         <v>14</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D234" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -5124,7 +5115,7 @@
         <v>14</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D235" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5142,7 +5133,7 @@
         <v>14</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D236" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -5160,7 +5151,7 @@
         <v>14</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D237" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5178,7 +5169,7 @@
         <v>14</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D238" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -5196,7 +5187,7 @@
         <v>14</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D239" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5214,7 +5205,7 @@
         <v>14</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D240" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -5232,7 +5223,7 @@
         <v>25</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D241" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -5250,9 +5241,9 @@
         <v>56</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D242" s="17" t="str">
+        <v>2</v>
+      </c>
+      <c r="D242" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -5264,13 +5255,13 @@
       <c r="A243" s="7"/>
       <c r="B243" s="5"/>
       <c r="C243" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5282,13 +5273,13 @@
         <v>56</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5300,7 +5291,7 @@
         <v>14</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D245" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -5318,7 +5309,7 @@
         <v>14</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D246" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5336,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D247" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -5354,7 +5345,7 @@
         <v>14</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D248" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -5372,7 +5363,7 @@
         <v>14</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D249" s="9" t="str">
         <f t="shared" ref="D249:D250" si="10">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -5390,7 +5381,7 @@
         <v>14</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D250" s="9" t="str">
         <f t="shared" si="10"/>
@@ -5408,9 +5399,9 @@
         <v>14</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D251" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -5422,7 +5413,7 @@
       <c r="A252" s="7"/>
       <c r="B252" s="5"/>
       <c r="C252" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D252" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
@@ -5438,7 +5429,7 @@
         <v>14</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D253" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5456,7 +5447,7 @@
         <v>14</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D254" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -5474,7 +5465,7 @@
         <v>14</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D255" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5492,9 +5483,9 @@
         <v>14</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="17" t="str">
+        <v>5</v>
+      </c>
+      <c r="D256" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -5506,7 +5497,7 @@
       <c r="A257" s="7"/>
       <c r="B257" s="5"/>
       <c r="C257" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D257" s="11" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
@@ -5522,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D258" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -5540,7 +5531,7 @@
         <v>14</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D259" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -5558,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D260" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -6750,27 +6741,27 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
